--- a/xlsx/人口_intext.xlsx
+++ b/xlsx/人口_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>政策_政策_社会政策_人口</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E7%88%86%E7%82%B8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E4%BA%BA</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
